--- a/biology/Botanique/Drosophyllaceae/Drosophyllaceae.xlsx
+++ b/biology/Botanique/Drosophyllaceae/Drosophyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification phylogénétique, la petite famille des Drosophyllaceae regroupe des plantes dicotylédones de l'ordre des Caryophyllales qui ne comprend qu'un genre : Drosophyllum, et qu'une espèce : Drosophyllum lusitanicum. 
 Ce sont de petites plantes carnivores ligneuses  à longues feuilles couvertes de poils glandulaires collants, originaires du Maroc, du Portugal et d'Espagne.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type  Drosophyllum issu du grec δρόσος / drosos, rosée, et φύλλων / fyllon, feuille, en référence aux excrétions luisantes émises par les glandes foliaires de la plante, et leur ressemblance ave le genre Drosera (Droseraceae)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type  Drosophyllum issu du grec δρόσος / drosos, rosée, et φύλλων / fyllon, feuille, en référence aux excrétions luisantes émises par les glandes foliaires de la plante, et leur ressemblance ave le genre Drosera (Droseraceae).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 mai 2010)[2], NCBI  (3 mai 2010)[3], Angiosperm Phylogeny Website                        (3 mai 2010)[4] et DELTA Angio           (3 mai 2010)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 mai 2010), NCBI  (3 mai 2010), Angiosperm Phylogeny Website                        (3 mai 2010) et DELTA Angio           (3 mai 2010) :
 genre Drosophyllum  Link (1806)</t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 mai 2010)[2], NCBI  (3 mai 2010)[3], Angiosperm Phylogeny Website                        (3 mai 2010)[4] et DELTA Angio           (3 mai 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 mai 2010), NCBI  (3 mai 2010), Angiosperm Phylogeny Website                        (3 mai 2010) et DELTA Angio           (3 mai 2010) :
 genre Drosophyllum  Link (1806)
 Drosophyllum lusitanicum  (L.) Link (1806)</t>
         </is>
